--- a/lib/tracker_template.xlsx
+++ b/lib/tracker_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robstaal.duinen/Projects/Personal/bigtrees/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9F9908-445A-B04E-B57A-B8277530B793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF785943-4513-4544-9E8B-47EA539488CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23800" windowHeight="15920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29100" yWindow="3540" windowWidth="23800" windowHeight="15920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operations" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Package #</t>
   </si>
   <si>
-    <t>Hyperlink to Online Estimate</t>
-  </si>
-  <si>
     <t>Link to Tailboard</t>
   </si>
   <si>
@@ -181,6 +178,12 @@
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>Link to Online Estimate</t>
+  </si>
+  <si>
+    <t>Assigned Lead</t>
   </si>
 </sst>
 </file>
@@ -668,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM999"/>
+  <dimension ref="A1:AN999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -714,15 +717,15 @@
     <col min="40" max="16384" width="16" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -734,13 +737,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
@@ -827,13 +830,16 @@
         <v>31</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>33</v>
+      <c r="AN1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -860,7 +866,7 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L3" s="9"/>
       <c r="N3" s="10"/>
       <c r="Q3" s="11"/>
@@ -872,7 +878,7 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L4" s="9"/>
       <c r="N4" s="10"/>
       <c r="Q4" s="11"/>
@@ -884,7 +890,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L5" s="9"/>
       <c r="N5" s="10"/>
       <c r="Q5" s="11"/>
@@ -896,7 +902,7 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L6" s="9"/>
       <c r="N6" s="10"/>
       <c r="Q6" s="11"/>
@@ -908,7 +914,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L7" s="9"/>
       <c r="N7" s="10"/>
       <c r="Q7" s="11"/>
@@ -920,7 +926,7 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L8" s="9"/>
       <c r="N8" s="10"/>
       <c r="Q8" s="11"/>
@@ -932,7 +938,7 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L9" s="9"/>
       <c r="N9" s="10"/>
       <c r="Q9" s="11"/>
@@ -944,7 +950,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L10" s="9"/>
       <c r="N10" s="10"/>
       <c r="Q10" s="11"/>
@@ -956,7 +962,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L11" s="9"/>
       <c r="N11" s="10"/>
       <c r="P11" s="14"/>
@@ -969,7 +975,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L12" s="9"/>
       <c r="N12" s="10"/>
       <c r="Q12" s="11"/>
@@ -981,7 +987,7 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L13" s="9"/>
       <c r="N13" s="10"/>
       <c r="Q13" s="11"/>
@@ -993,7 +999,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L14" s="9"/>
       <c r="N14" s="10"/>
       <c r="Q14" s="11"/>
@@ -1005,7 +1011,7 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L15" s="9"/>
       <c r="N15" s="10"/>
       <c r="P15" s="15"/>
@@ -1018,7 +1024,7 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="L16" s="9"/>
       <c r="N16" s="10"/>
       <c r="Q16" s="11"/>
@@ -12854,7 +12860,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D1" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -12862,34 +12868,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/lib/tracker_template.xlsx
+++ b/lib/tracker_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robstaal.duinen/Projects/Personal/bigtrees/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF785943-4513-4544-9E8B-47EA539488CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B1E51-946E-AD45-B3FF-584043F6AA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29100" yWindow="3540" windowWidth="23800" windowHeight="15920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33200" yWindow="10400" windowWidth="23800" windowHeight="15920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operations" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -184,6 +184,24 @@
   </si>
   <si>
     <t>Assigned Lead</t>
+  </si>
+  <si>
+    <t>Tag 1</t>
+  </si>
+  <si>
+    <t>Tag 2</t>
+  </si>
+  <si>
+    <t>Tag 3</t>
+  </si>
+  <si>
+    <t>Tag 4</t>
+  </si>
+  <si>
+    <t>Tag 5</t>
+  </si>
+  <si>
+    <t>Tag 6</t>
   </si>
 </sst>
 </file>
@@ -671,11 +689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN999"/>
+  <dimension ref="A1:AT999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM7" sqref="AM7"/>
+      <selection pane="bottomLeft" activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -717,7 +735,7 @@
     <col min="40" max="16384" width="16" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -838,8 +856,26 @@
       <c r="AN1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -866,7 +902,7 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L3" s="9"/>
       <c r="N3" s="10"/>
       <c r="Q3" s="11"/>
@@ -878,7 +914,7 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L4" s="9"/>
       <c r="N4" s="10"/>
       <c r="Q4" s="11"/>
@@ -890,7 +926,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L5" s="9"/>
       <c r="N5" s="10"/>
       <c r="Q5" s="11"/>
@@ -902,7 +938,7 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L6" s="9"/>
       <c r="N6" s="10"/>
       <c r="Q6" s="11"/>
@@ -914,7 +950,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L7" s="9"/>
       <c r="N7" s="10"/>
       <c r="Q7" s="11"/>
@@ -926,7 +962,7 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L8" s="9"/>
       <c r="N8" s="10"/>
       <c r="Q8" s="11"/>
@@ -938,7 +974,7 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L9" s="9"/>
       <c r="N9" s="10"/>
       <c r="Q9" s="11"/>
@@ -950,7 +986,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L10" s="9"/>
       <c r="N10" s="10"/>
       <c r="Q10" s="11"/>
@@ -962,7 +998,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L11" s="9"/>
       <c r="N11" s="10"/>
       <c r="P11" s="14"/>
@@ -975,7 +1011,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L12" s="9"/>
       <c r="N12" s="10"/>
       <c r="Q12" s="11"/>
@@ -987,7 +1023,7 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L13" s="9"/>
       <c r="N13" s="10"/>
       <c r="Q13" s="11"/>
@@ -999,7 +1035,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L14" s="9"/>
       <c r="N14" s="10"/>
       <c r="Q14" s="11"/>
@@ -1011,7 +1047,7 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L15" s="9"/>
       <c r="N15" s="10"/>
       <c r="P15" s="15"/>
@@ -1024,7 +1060,7 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L16" s="9"/>
       <c r="N16" s="10"/>
       <c r="Q16" s="11"/>
